--- a/profile.xlsx
+++ b/profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Upenn\cis565\Project3-CUDA-Path-Tracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D7B7B9-7B10-46D2-98E2-F2E7645B92A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E505A-968F-43B8-8AA2-C9FED8918B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Without Stream Compaction</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Depth=8</t>
+  </si>
+  <si>
+    <t>Only Material Sorting</t>
+  </si>
+  <si>
+    <t>Only Stream Compaction</t>
+  </si>
+  <si>
+    <t>Stream Compaction + Material Sorting</t>
   </si>
 </sst>
 </file>
@@ -188,7 +197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stream Compaction + Material Sort</c:v>
+                  <c:v>Stream Compaction + Material Sorting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,7 +320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Without Stream Compaction</c:v>
+                  <c:v>Only Material Sorting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -434,7 +443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Without Material Sort</c:v>
+                  <c:v>Only Stream Compaction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1656,7 +1665,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1741,7 +1750,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>4.8552400000000002</v>
@@ -1755,7 +1764,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>6.0297000000000001</v>
@@ -1769,7 +1778,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2.6608900000000002</v>
